--- a/Code/Results/Cases/Case_1_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008954073079113</v>
+        <v>1.034063234460032</v>
       </c>
       <c r="D2">
-        <v>1.055722112777338</v>
+        <v>1.060760384964664</v>
       </c>
       <c r="E2">
-        <v>1.014140893992433</v>
+        <v>1.03329305325899</v>
       </c>
       <c r="F2">
-        <v>1.053449541821353</v>
+        <v>1.064979749507142</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061300217899858</v>
+        <v>1.048272377781091</v>
       </c>
       <c r="J2">
-        <v>1.030870228329066</v>
+        <v>1.039184532615147</v>
       </c>
       <c r="K2">
-        <v>1.06645612596613</v>
+        <v>1.063486287743405</v>
       </c>
       <c r="L2">
-        <v>1.025406677197749</v>
+        <v>1.036095820211693</v>
       </c>
       <c r="M2">
-        <v>1.064211269300722</v>
+        <v>1.067694225211488</v>
       </c>
       <c r="N2">
-        <v>1.032334182295761</v>
+        <v>1.040660293847593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01322046697514</v>
+        <v>1.034964414879229</v>
       </c>
       <c r="D3">
-        <v>1.059109503190307</v>
+        <v>1.061479701356084</v>
       </c>
       <c r="E3">
-        <v>1.017539155029712</v>
+        <v>1.034057817870815</v>
       </c>
       <c r="F3">
-        <v>1.057323853682859</v>
+        <v>1.065832694152819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062888106726473</v>
+        <v>1.048541584049146</v>
       </c>
       <c r="J3">
-        <v>1.033357103961215</v>
+        <v>1.039728932610811</v>
       </c>
       <c r="K3">
-        <v>1.069038059877945</v>
+        <v>1.064020332827844</v>
       </c>
       <c r="L3">
-        <v>1.027952431747692</v>
+        <v>1.0366696529346</v>
       </c>
       <c r="M3">
-        <v>1.067272266991049</v>
+        <v>1.068362385759404</v>
       </c>
       <c r="N3">
-        <v>1.034824589576557</v>
+        <v>1.041205466953693</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015927560416383</v>
+        <v>1.035548081585984</v>
       </c>
       <c r="D4">
-        <v>1.06125983703873</v>
+        <v>1.061945348833855</v>
       </c>
       <c r="E4">
-        <v>1.019701193954249</v>
+        <v>1.034553512338095</v>
       </c>
       <c r="F4">
-        <v>1.059785665036332</v>
+        <v>1.066385210360045</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063885568575192</v>
+        <v>1.04871467736394</v>
       </c>
       <c r="J4">
-        <v>1.034932430111761</v>
+        <v>1.040081104745508</v>
       </c>
       <c r="K4">
-        <v>1.070671126155929</v>
+        <v>1.06436542383891</v>
       </c>
       <c r="L4">
-        <v>1.029567518410518</v>
+        <v>1.037041140567214</v>
       </c>
       <c r="M4">
-        <v>1.069212348868738</v>
+        <v>1.06879468697315</v>
       </c>
       <c r="N4">
-        <v>1.036402152870929</v>
+        <v>1.041558139213217</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017053234101045</v>
+        <v>1.035793583768162</v>
       </c>
       <c r="D5">
-        <v>1.062154173836671</v>
+        <v>1.062141153632356</v>
       </c>
       <c r="E5">
-        <v>1.020601570913519</v>
+        <v>1.034762102010859</v>
       </c>
       <c r="F5">
-        <v>1.060810134033702</v>
+        <v>1.066617631031238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064297877266291</v>
+        <v>1.048787181408671</v>
       </c>
       <c r="J5">
-        <v>1.035586826529622</v>
+        <v>1.040229135040257</v>
       </c>
       <c r="K5">
-        <v>1.071348891918615</v>
+        <v>1.064510385823956</v>
       </c>
       <c r="L5">
-        <v>1.030239021752866</v>
+        <v>1.037197355777031</v>
       </c>
       <c r="M5">
-        <v>1.070018510953889</v>
+        <v>1.068976414558635</v>
       </c>
       <c r="N5">
-        <v>1.037057478606764</v>
+        <v>1.041706379727964</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017241525368872</v>
+        <v>1.035834812176139</v>
       </c>
       <c r="D6">
-        <v>1.06230377815146</v>
+        <v>1.06217403280325</v>
       </c>
       <c r="E6">
-        <v>1.020752255066862</v>
+        <v>1.034797136801907</v>
       </c>
       <c r="F6">
-        <v>1.060981541782073</v>
+        <v>1.06665666381134</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064366698310192</v>
+        <v>1.048799339630828</v>
       </c>
       <c r="J6">
-        <v>1.035696247593425</v>
+        <v>1.040253988605892</v>
       </c>
       <c r="K6">
-        <v>1.07146218369026</v>
+        <v>1.064534718839831</v>
       </c>
       <c r="L6">
-        <v>1.030351337934469</v>
+        <v>1.037223587416093</v>
       </c>
       <c r="M6">
-        <v>1.070153322645115</v>
+        <v>1.069006926682577</v>
       </c>
       <c r="N6">
-        <v>1.037167055061028</v>
+        <v>1.041731268588513</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015942649844262</v>
+        <v>1.03555136149399</v>
       </c>
       <c r="D7">
-        <v>1.06127182481949</v>
+        <v>1.061947965006169</v>
       </c>
       <c r="E7">
-        <v>1.019713258044529</v>
+        <v>1.034556298740674</v>
       </c>
       <c r="F7">
-        <v>1.059799394783173</v>
+        <v>1.066388315417278</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063891105257848</v>
+        <v>1.048715647206345</v>
       </c>
       <c r="J7">
-        <v>1.034941204814222</v>
+        <v>1.040083082824757</v>
       </c>
       <c r="K7">
-        <v>1.0706802166778</v>
+        <v>1.064367361278719</v>
       </c>
       <c r="L7">
-        <v>1.02957652016578</v>
+        <v>1.037043227759668</v>
       </c>
       <c r="M7">
-        <v>1.06922315762378</v>
+        <v>1.068797115274427</v>
       </c>
       <c r="N7">
-        <v>1.036410940034474</v>
+        <v>1.041560120101566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010407274680948</v>
+        <v>1.034367679489501</v>
       </c>
       <c r="D8">
-        <v>1.056875669663722</v>
+        <v>1.061003438538364</v>
       </c>
       <c r="E8">
-        <v>1.015297158172998</v>
+        <v>1.033551334064318</v>
       </c>
       <c r="F8">
-        <v>1.05476842923776</v>
+        <v>1.06526788003944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061843164443532</v>
+        <v>1.048363584835726</v>
       </c>
       <c r="J8">
-        <v>1.031717831807065</v>
+        <v>1.039368533355099</v>
       </c>
       <c r="K8">
-        <v>1.067336633723647</v>
+        <v>1.063666867696485</v>
       </c>
       <c r="L8">
-        <v>1.026273831062846</v>
+        <v>1.03628971180437</v>
       </c>
       <c r="M8">
-        <v>1.065254317508852</v>
+        <v>1.067920041287431</v>
       </c>
       <c r="N8">
-        <v>1.03318298946792</v>
+        <v>1.0408445558897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00022267462749</v>
+        <v>1.032286091443423</v>
       </c>
       <c r="D9">
-        <v>1.048797760875484</v>
+        <v>1.059340681061949</v>
       </c>
       <c r="E9">
-        <v>1.007219822789619</v>
+        <v>1.03178696361409</v>
       </c>
       <c r="F9">
-        <v>1.045542149705969</v>
+        <v>1.06329823232911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05799702847557</v>
+        <v>1.047734806522946</v>
       </c>
       <c r="J9">
-        <v>1.025767572129253</v>
+        <v>1.038108755683676</v>
       </c>
       <c r="K9">
-        <v>1.061145806321314</v>
+        <v>1.062428952378195</v>
       </c>
       <c r="L9">
-        <v>1.020196839460185</v>
+        <v>1.034963346387475</v>
       </c>
       <c r="M9">
-        <v>1.057937155828083</v>
+        <v>1.066374257820361</v>
       </c>
       <c r="N9">
-        <v>1.027224279738861</v>
+        <v>1.039582989189485</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9931131476514663</v>
+        <v>1.030901269640955</v>
       </c>
       <c r="D10">
-        <v>1.043170210264474</v>
+        <v>1.058233364299404</v>
       </c>
       <c r="E10">
-        <v>1.001616573816981</v>
+        <v>1.030615181462348</v>
       </c>
       <c r="F10">
-        <v>1.039125713160621</v>
+        <v>1.061988398683386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055262100306528</v>
+        <v>1.047310019222725</v>
       </c>
       <c r="J10">
-        <v>1.021602694771869</v>
+        <v>1.037268530009721</v>
       </c>
       <c r="K10">
-        <v>1.056801433981904</v>
+        <v>1.06160136217535</v>
       </c>
       <c r="L10">
-        <v>1.015956701738687</v>
+        <v>1.034080130330965</v>
       </c>
       <c r="M10">
-        <v>1.052822734320518</v>
+        <v>1.065343643049064</v>
       </c>
       <c r="N10">
-        <v>1.023053487777912</v>
+        <v>1.038741570298698</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9899514914261639</v>
+        <v>1.030302330187845</v>
       </c>
       <c r="D11">
-        <v>1.040671280415178</v>
+        <v>1.057754186697732</v>
       </c>
       <c r="E11">
-        <v>0.9991338115494975</v>
+        <v>1.030108864898506</v>
       </c>
       <c r="F11">
-        <v>1.036278867173418</v>
+        <v>1.061422022238735</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054034627311894</v>
+        <v>1.047124762464797</v>
       </c>
       <c r="J11">
-        <v>1.01974835849382</v>
+        <v>1.036904627537123</v>
       </c>
       <c r="K11">
-        <v>1.054864899838821</v>
+        <v>1.061242474041194</v>
       </c>
       <c r="L11">
-        <v>1.014072081423678</v>
+        <v>1.033697946151699</v>
       </c>
       <c r="M11">
-        <v>1.050547581321752</v>
+        <v>1.064897371780188</v>
       </c>
       <c r="N11">
-        <v>1.021196518129653</v>
+        <v>1.038377151042849</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9887639447967091</v>
+        <v>1.030079963374993</v>
       </c>
       <c r="D12">
-        <v>1.039733301115157</v>
+        <v>1.057576245228481</v>
       </c>
       <c r="E12">
-        <v>0.9982026825857976</v>
+        <v>1.029920959095743</v>
       </c>
       <c r="F12">
-        <v>1.03521063395237</v>
+        <v>1.061211765252056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05357194727173</v>
+        <v>1.047055752119926</v>
       </c>
       <c r="J12">
-        <v>1.019051566387964</v>
+        <v>1.036769447098055</v>
       </c>
       <c r="K12">
-        <v>1.054136909607482</v>
+        <v>1.061109087751019</v>
       </c>
       <c r="L12">
-        <v>1.01336439755855</v>
+        <v>1.033556025267885</v>
       </c>
       <c r="M12">
-        <v>1.049692976520586</v>
+        <v>1.064731606968177</v>
       </c>
       <c r="N12">
-        <v>1.020498736499083</v>
+        <v>1.038241778632052</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9890192846411369</v>
+        <v>1.030127656997055</v>
       </c>
       <c r="D13">
-        <v>1.03993494990201</v>
+        <v>1.057614412149832</v>
       </c>
       <c r="E13">
-        <v>0.9984028237732234</v>
+        <v>1.029961258140634</v>
       </c>
       <c r="F13">
-        <v>1.035440270126113</v>
+        <v>1.061256860611389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053671502936581</v>
+        <v>1.047070564009302</v>
       </c>
       <c r="J13">
-        <v>1.019201399114216</v>
+        <v>1.036798444235714</v>
       </c>
       <c r="K13">
-        <v>1.054293464471514</v>
+        <v>1.061137703128957</v>
       </c>
       <c r="L13">
-        <v>1.013516550260188</v>
+        <v>1.033586465980733</v>
       </c>
       <c r="M13">
-        <v>1.04987672945964</v>
+        <v>1.064767164050384</v>
       </c>
       <c r="N13">
-        <v>1.020648782004992</v>
+        <v>1.038270816948972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9898536010763338</v>
+        <v>1.030283947109218</v>
       </c>
       <c r="D14">
-        <v>1.040593948523784</v>
+        <v>1.057739477043579</v>
       </c>
       <c r="E14">
-        <v>0.9990570286924041</v>
+        <v>1.030093329218091</v>
       </c>
       <c r="F14">
-        <v>1.036190789743552</v>
+        <v>1.061404639863632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053996521052174</v>
+        <v>1.047119062077657</v>
       </c>
       <c r="J14">
-        <v>1.019690926983509</v>
+        <v>1.036893453695325</v>
       </c>
       <c r="K14">
-        <v>1.054804903031602</v>
+        <v>1.061231449898225</v>
       </c>
       <c r="L14">
-        <v>1.014013742246462</v>
+        <v>1.033686214118075</v>
       </c>
       <c r="M14">
-        <v>1.050477135925301</v>
+        <v>1.064883669596497</v>
       </c>
       <c r="N14">
-        <v>1.02113900506001</v>
+        <v>1.038365961332915</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9903658854763171</v>
+        <v>1.030380256682462</v>
       </c>
       <c r="D15">
-        <v>1.040998672111256</v>
+        <v>1.057816539854485</v>
       </c>
       <c r="E15">
-        <v>0.9994589105835937</v>
+        <v>1.030174724174603</v>
       </c>
       <c r="F15">
-        <v>1.036651764718138</v>
+        <v>1.061495707549818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054195874417926</v>
+        <v>1.047148917158288</v>
       </c>
       <c r="J15">
-        <v>1.019991468841039</v>
+        <v>1.036951990751517</v>
       </c>
       <c r="K15">
-        <v>1.055118856718687</v>
+        <v>1.061289199912908</v>
       </c>
       <c r="L15">
-        <v>1.014319053877926</v>
+        <v>1.033747677484436</v>
       </c>
       <c r="M15">
-        <v>1.050845793046246</v>
+        <v>1.064955452579498</v>
       </c>
       <c r="N15">
-        <v>1.02143997372145</v>
+        <v>1.03842458151844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9933211676475253</v>
+        <v>1.030941034075939</v>
       </c>
       <c r="D16">
-        <v>1.043334710517866</v>
+        <v>1.058265172157502</v>
       </c>
       <c r="E16">
-        <v>1.001780119763796</v>
+        <v>1.030648806759364</v>
       </c>
       <c r="F16">
-        <v>1.039313164165943</v>
+        <v>1.062026004018223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055342632096347</v>
+        <v>1.047322286333404</v>
       </c>
       <c r="J16">
-        <v>1.021724658055086</v>
+        <v>1.037292679438425</v>
       </c>
       <c r="K16">
-        <v>1.056928758678976</v>
+        <v>1.061625169213424</v>
       </c>
       <c r="L16">
-        <v>1.016080724329892</v>
+        <v>1.034105500089816</v>
       </c>
       <c r="M16">
-        <v>1.052972417991616</v>
+        <v>1.065373260552932</v>
       </c>
       <c r="N16">
-        <v>1.023175624262981</v>
+        <v>1.038765754022362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.995152208597759</v>
+        <v>1.031292982493077</v>
       </c>
       <c r="D17">
-        <v>1.044783110093232</v>
+        <v>1.058546668279256</v>
       </c>
       <c r="E17">
-        <v>1.00322072667822</v>
+        <v>1.030946474550333</v>
       </c>
       <c r="F17">
-        <v>1.040963911553798</v>
+        <v>1.062358857753644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056050219258939</v>
+        <v>1.047430683072737</v>
       </c>
       <c r="J17">
-        <v>1.02279796346123</v>
+        <v>1.037506363979478</v>
       </c>
       <c r="K17">
-        <v>1.058048989806717</v>
+        <v>1.061835771255214</v>
       </c>
       <c r="L17">
-        <v>1.01717251957076</v>
+        <v>1.034330021622678</v>
       </c>
       <c r="M17">
-        <v>1.054289893868535</v>
+        <v>1.065635339265521</v>
       </c>
       <c r="N17">
-        <v>1.024250453885911</v>
+        <v>1.038979742019973</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9962122452295085</v>
+        <v>1.031498335272557</v>
       </c>
       <c r="D18">
-        <v>1.045621969337428</v>
+        <v>1.058710888831711</v>
       </c>
       <c r="E18">
-        <v>1.004055585483041</v>
+        <v>1.031120202547608</v>
       </c>
       <c r="F18">
-        <v>1.041920191872357</v>
+        <v>1.062553081829859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05645878920182</v>
+        <v>1.047493781544815</v>
       </c>
       <c r="J18">
-        <v>1.023419117071588</v>
+        <v>1.037630994844319</v>
       </c>
       <c r="K18">
-        <v>1.05869708211393</v>
+        <v>1.061958560049413</v>
       </c>
       <c r="L18">
-        <v>1.017804679525748</v>
+        <v>1.034461005684074</v>
       </c>
       <c r="M18">
-        <v>1.055052539757899</v>
+        <v>1.065788204449184</v>
       </c>
       <c r="N18">
-        <v>1.024872489605643</v>
+        <v>1.039104549874937</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9965723566249639</v>
+        <v>1.031568366630025</v>
       </c>
       <c r="D19">
-        <v>1.045906998946303</v>
+        <v>1.058766888600888</v>
       </c>
       <c r="E19">
-        <v>1.004339343550127</v>
+        <v>1.031179456798857</v>
       </c>
       <c r="F19">
-        <v>1.042245158539527</v>
+        <v>1.062619320079953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056597403700786</v>
+        <v>1.047515274842532</v>
       </c>
       <c r="J19">
-        <v>1.023630095969245</v>
+        <v>1.03767348940857</v>
       </c>
       <c r="K19">
-        <v>1.058917172918421</v>
+        <v>1.062000419027419</v>
       </c>
       <c r="L19">
-        <v>1.018019448563015</v>
+        <v>1.034505671976336</v>
       </c>
       <c r="M19">
-        <v>1.055311607950787</v>
+        <v>1.065840327330431</v>
       </c>
       <c r="N19">
-        <v>1.025083768117535</v>
+        <v>1.039147104786343</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.994956585189831</v>
+        <v>1.031255214797124</v>
       </c>
       <c r="D20">
-        <v>1.044628330792739</v>
+        <v>1.058516463436286</v>
       </c>
       <c r="E20">
-        <v>1.003066727116045</v>
+        <v>1.030914526906125</v>
       </c>
       <c r="F20">
-        <v>1.040787485332155</v>
+        <v>1.062323137811594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055974733222181</v>
+        <v>1.047419066312305</v>
       </c>
       <c r="J20">
-        <v>1.022683315985971</v>
+        <v>1.037483438440735</v>
       </c>
       <c r="K20">
-        <v>1.05792935231765</v>
+        <v>1.061813180999271</v>
       </c>
       <c r="L20">
-        <v>1.01705586532081</v>
+        <v>1.034305930049802</v>
       </c>
       <c r="M20">
-        <v>1.054149145588804</v>
+        <v>1.065607220782078</v>
       </c>
       <c r="N20">
-        <v>1.024135643598087</v>
+        <v>1.038956783924335</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9896082847469808</v>
+        <v>1.030237920631944</v>
       </c>
       <c r="D21">
-        <v>1.040400162985391</v>
+        <v>1.057702647254449</v>
       </c>
       <c r="E21">
-        <v>0.9988646314831076</v>
+        <v>1.030054433073606</v>
       </c>
       <c r="F21">
-        <v>1.03597008238055</v>
+        <v>1.061361119218453</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05390099949075</v>
+        <v>1.047104786057874</v>
       </c>
       <c r="J21">
-        <v>1.019546997319747</v>
+        <v>1.036865476068873</v>
       </c>
       <c r="K21">
-        <v>1.054654539549768</v>
+        <v>1.06120384598881</v>
       </c>
       <c r="L21">
-        <v>1.013867545741854</v>
+        <v>1.03365683968268</v>
       </c>
       <c r="M21">
-        <v>1.050300597185683</v>
+        <v>1.064849361599616</v>
       </c>
       <c r="N21">
-        <v>1.020994870999616</v>
+        <v>1.038337943975023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9861690526515345</v>
+        <v>1.029598921094876</v>
       </c>
       <c r="D22">
-        <v>1.037685015354497</v>
+        <v>1.057191238164081</v>
       </c>
       <c r="E22">
-        <v>0.9961707631140269</v>
+        <v>1.029514600107283</v>
       </c>
       <c r="F22">
-        <v>1.0328785047267</v>
+        <v>1.060756957646926</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052558020108392</v>
+        <v>1.046906041912309</v>
       </c>
       <c r="J22">
-        <v>1.017528536090207</v>
+        <v>1.03647687629477</v>
       </c>
       <c r="K22">
-        <v>1.052545151230223</v>
+        <v>1.060820274960293</v>
       </c>
       <c r="L22">
-        <v>1.011818461528919</v>
+        <v>1.033248958966609</v>
       </c>
       <c r="M22">
-        <v>1.047825607711866</v>
+        <v>1.064372867370574</v>
       </c>
       <c r="N22">
-        <v>1.01897354332361</v>
+        <v>1.037948792344668</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9879997454334538</v>
+        <v>1.029937608277183</v>
       </c>
       <c r="D23">
-        <v>1.039129893198135</v>
+        <v>1.057462319699483</v>
       </c>
       <c r="E23">
-        <v>0.9976038984620322</v>
+        <v>1.029800685959614</v>
       </c>
       <c r="F23">
-        <v>1.034523525084041</v>
+        <v>1.061077168415928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05327375562748</v>
+        <v>1.047011508104957</v>
       </c>
       <c r="J23">
-        <v>1.018603097589524</v>
+        <v>1.036682885944862</v>
       </c>
       <c r="K23">
-        <v>1.053668277487068</v>
+        <v>1.061023656195802</v>
       </c>
       <c r="L23">
-        <v>1.01290905655481</v>
+        <v>1.033465162241806</v>
       </c>
       <c r="M23">
-        <v>1.049143028032718</v>
+        <v>1.064625465310873</v>
       </c>
       <c r="N23">
-        <v>1.020049630823509</v>
+        <v>1.038155094552093</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9950450035949095</v>
+        <v>1.031272280185633</v>
       </c>
       <c r="D24">
-        <v>1.044698287307675</v>
+        <v>1.058530111616414</v>
       </c>
       <c r="E24">
-        <v>1.003136329616705</v>
+        <v>1.030928962352029</v>
       </c>
       <c r="F24">
-        <v>1.040867225023302</v>
+        <v>1.062339277880847</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056008854931104</v>
+        <v>1.047424315820371</v>
       </c>
       <c r="J24">
-        <v>1.022735135322229</v>
+        <v>1.037493797528814</v>
       </c>
       <c r="K24">
-        <v>1.057983427762759</v>
+        <v>1.061823388723783</v>
       </c>
       <c r="L24">
-        <v>1.017108590748417</v>
+        <v>1.034316815919154</v>
       </c>
       <c r="M24">
-        <v>1.054212761619977</v>
+        <v>1.065619926317327</v>
       </c>
       <c r="N24">
-        <v>1.024187536523746</v>
+        <v>1.038967157723506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002909667638247</v>
+        <v>1.032823725392459</v>
       </c>
       <c r="D25">
-        <v>1.050927297508602</v>
+        <v>1.059770341594429</v>
       </c>
       <c r="E25">
-        <v>1.009344986986419</v>
+        <v>1.0322423153541</v>
       </c>
       <c r="F25">
-        <v>1.047972421530867</v>
+        <v>1.063806865571129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059020594001941</v>
+        <v>1.047898351476906</v>
       </c>
       <c r="J25">
-        <v>1.027339505077361</v>
+        <v>1.038434508945279</v>
       </c>
       <c r="K25">
-        <v>1.062783318781074</v>
+        <v>1.062749396581427</v>
       </c>
       <c r="L25">
-        <v>1.021799945691598</v>
+        <v>1.035306067565845</v>
       </c>
       <c r="M25">
-        <v>1.059869025966675</v>
+        <v>1.066773902570599</v>
       </c>
       <c r="N25">
-        <v>1.028798445012059</v>
+        <v>1.039909205058084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034063234460032</v>
+        <v>1.008954073079113</v>
       </c>
       <c r="D2">
-        <v>1.060760384964664</v>
+        <v>1.055722112777337</v>
       </c>
       <c r="E2">
-        <v>1.03329305325899</v>
+        <v>1.014140893992433</v>
       </c>
       <c r="F2">
-        <v>1.064979749507142</v>
+        <v>1.053449541821352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048272377781091</v>
+        <v>1.061300217899858</v>
       </c>
       <c r="J2">
-        <v>1.039184532615147</v>
+        <v>1.030870228329066</v>
       </c>
       <c r="K2">
-        <v>1.063486287743405</v>
+        <v>1.06645612596613</v>
       </c>
       <c r="L2">
-        <v>1.036095820211693</v>
+        <v>1.025406677197749</v>
       </c>
       <c r="M2">
-        <v>1.067694225211488</v>
+        <v>1.064211269300722</v>
       </c>
       <c r="N2">
-        <v>1.040660293847593</v>
+        <v>1.032334182295761</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034964414879229</v>
+        <v>1.013220466975139</v>
       </c>
       <c r="D3">
-        <v>1.061479701356084</v>
+        <v>1.059109503190307</v>
       </c>
       <c r="E3">
-        <v>1.034057817870815</v>
+        <v>1.017539155029712</v>
       </c>
       <c r="F3">
-        <v>1.065832694152819</v>
+        <v>1.057323853682859</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048541584049146</v>
+        <v>1.062888106726473</v>
       </c>
       <c r="J3">
-        <v>1.039728932610811</v>
+        <v>1.033357103961215</v>
       </c>
       <c r="K3">
-        <v>1.064020332827844</v>
+        <v>1.069038059877945</v>
       </c>
       <c r="L3">
-        <v>1.0366696529346</v>
+        <v>1.027952431747692</v>
       </c>
       <c r="M3">
-        <v>1.068362385759404</v>
+        <v>1.067272266991049</v>
       </c>
       <c r="N3">
-        <v>1.041205466953693</v>
+        <v>1.034824589576557</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035548081585984</v>
+        <v>1.015927560416382</v>
       </c>
       <c r="D4">
-        <v>1.061945348833855</v>
+        <v>1.061259837038729</v>
       </c>
       <c r="E4">
-        <v>1.034553512338095</v>
+        <v>1.019701193954248</v>
       </c>
       <c r="F4">
-        <v>1.066385210360045</v>
+        <v>1.059785665036331</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04871467736394</v>
+        <v>1.063885568575192</v>
       </c>
       <c r="J4">
-        <v>1.040081104745508</v>
+        <v>1.03493243011176</v>
       </c>
       <c r="K4">
-        <v>1.06436542383891</v>
+        <v>1.070671126155928</v>
       </c>
       <c r="L4">
-        <v>1.037041140567214</v>
+        <v>1.029567518410517</v>
       </c>
       <c r="M4">
-        <v>1.06879468697315</v>
+        <v>1.069212348868737</v>
       </c>
       <c r="N4">
-        <v>1.041558139213217</v>
+        <v>1.036402152870928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035793583768162</v>
+        <v>1.017053234101044</v>
       </c>
       <c r="D5">
-        <v>1.062141153632356</v>
+        <v>1.06215417383667</v>
       </c>
       <c r="E5">
-        <v>1.034762102010859</v>
+        <v>1.020601570913518</v>
       </c>
       <c r="F5">
-        <v>1.066617631031238</v>
+        <v>1.060810134033701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048787181408671</v>
+        <v>1.06429787726629</v>
       </c>
       <c r="J5">
-        <v>1.040229135040257</v>
+        <v>1.035586826529622</v>
       </c>
       <c r="K5">
-        <v>1.064510385823956</v>
+        <v>1.071348891918614</v>
       </c>
       <c r="L5">
-        <v>1.037197355777031</v>
+        <v>1.030239021752865</v>
       </c>
       <c r="M5">
-        <v>1.068976414558635</v>
+        <v>1.070018510953888</v>
       </c>
       <c r="N5">
-        <v>1.041706379727964</v>
+        <v>1.037057478606763</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035834812176139</v>
+        <v>1.017241525368872</v>
       </c>
       <c r="D6">
-        <v>1.06217403280325</v>
+        <v>1.06230377815146</v>
       </c>
       <c r="E6">
-        <v>1.034797136801907</v>
+        <v>1.020752255066862</v>
       </c>
       <c r="F6">
-        <v>1.06665666381134</v>
+        <v>1.060981541782073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048799339630828</v>
+        <v>1.064366698310192</v>
       </c>
       <c r="J6">
-        <v>1.040253988605892</v>
+        <v>1.035696247593425</v>
       </c>
       <c r="K6">
-        <v>1.064534718839831</v>
+        <v>1.07146218369026</v>
       </c>
       <c r="L6">
-        <v>1.037223587416093</v>
+        <v>1.030351337934468</v>
       </c>
       <c r="M6">
-        <v>1.069006926682577</v>
+        <v>1.070153322645115</v>
       </c>
       <c r="N6">
-        <v>1.041731268588513</v>
+        <v>1.037167055061028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03555136149399</v>
+        <v>1.015942649844261</v>
       </c>
       <c r="D7">
-        <v>1.061947965006169</v>
+        <v>1.061271824819489</v>
       </c>
       <c r="E7">
-        <v>1.034556298740674</v>
+        <v>1.019713258044528</v>
       </c>
       <c r="F7">
-        <v>1.066388315417278</v>
+        <v>1.059799394783171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048715647206345</v>
+        <v>1.063891105257847</v>
       </c>
       <c r="J7">
-        <v>1.040083082824757</v>
+        <v>1.034941204814221</v>
       </c>
       <c r="K7">
-        <v>1.064367361278719</v>
+        <v>1.070680216677799</v>
       </c>
       <c r="L7">
-        <v>1.037043227759668</v>
+        <v>1.029576520165779</v>
       </c>
       <c r="M7">
-        <v>1.068797115274427</v>
+        <v>1.069223157623779</v>
       </c>
       <c r="N7">
-        <v>1.041560120101566</v>
+        <v>1.036410940034472</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034367679489501</v>
+        <v>1.010407274680948</v>
       </c>
       <c r="D8">
-        <v>1.061003438538364</v>
+        <v>1.056875669663722</v>
       </c>
       <c r="E8">
-        <v>1.033551334064318</v>
+        <v>1.015297158172997</v>
       </c>
       <c r="F8">
-        <v>1.06526788003944</v>
+        <v>1.05476842923776</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048363584835726</v>
+        <v>1.061843164443531</v>
       </c>
       <c r="J8">
-        <v>1.039368533355099</v>
+        <v>1.031717831807064</v>
       </c>
       <c r="K8">
-        <v>1.063666867696485</v>
+        <v>1.067336633723647</v>
       </c>
       <c r="L8">
-        <v>1.03628971180437</v>
+        <v>1.026273831062846</v>
       </c>
       <c r="M8">
-        <v>1.067920041287431</v>
+        <v>1.065254317508851</v>
       </c>
       <c r="N8">
-        <v>1.0408445558897</v>
+        <v>1.03318298946792</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032286091443423</v>
+        <v>1.000222674627489</v>
       </c>
       <c r="D9">
-        <v>1.059340681061949</v>
+        <v>1.048797760875484</v>
       </c>
       <c r="E9">
-        <v>1.03178696361409</v>
+        <v>1.007219822789618</v>
       </c>
       <c r="F9">
-        <v>1.06329823232911</v>
+        <v>1.045542149705969</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047734806522946</v>
+        <v>1.05799702847557</v>
       </c>
       <c r="J9">
-        <v>1.038108755683676</v>
+        <v>1.025767572129252</v>
       </c>
       <c r="K9">
-        <v>1.062428952378195</v>
+        <v>1.061145806321314</v>
       </c>
       <c r="L9">
-        <v>1.034963346387475</v>
+        <v>1.020196839460185</v>
       </c>
       <c r="M9">
-        <v>1.066374257820361</v>
+        <v>1.057937155828083</v>
       </c>
       <c r="N9">
-        <v>1.039582989189485</v>
+        <v>1.02722427973886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030901269640955</v>
+        <v>0.9931131476514651</v>
       </c>
       <c r="D10">
-        <v>1.058233364299404</v>
+        <v>1.043170210264472</v>
       </c>
       <c r="E10">
-        <v>1.030615181462348</v>
+        <v>1.00161657381698</v>
       </c>
       <c r="F10">
-        <v>1.061988398683386</v>
+        <v>1.03912571316062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047310019222725</v>
+        <v>1.055262100306527</v>
       </c>
       <c r="J10">
-        <v>1.037268530009721</v>
+        <v>1.021602694771868</v>
       </c>
       <c r="K10">
-        <v>1.06160136217535</v>
+        <v>1.056801433981903</v>
       </c>
       <c r="L10">
-        <v>1.034080130330965</v>
+        <v>1.015956701738686</v>
       </c>
       <c r="M10">
-        <v>1.065343643049064</v>
+        <v>1.052822734320517</v>
       </c>
       <c r="N10">
-        <v>1.038741570298698</v>
+        <v>1.02305348777791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030302330187845</v>
+        <v>0.9899514914261628</v>
       </c>
       <c r="D11">
-        <v>1.057754186697732</v>
+        <v>1.040671280415177</v>
       </c>
       <c r="E11">
-        <v>1.030108864898506</v>
+        <v>0.9991338115494962</v>
       </c>
       <c r="F11">
-        <v>1.061422022238735</v>
+        <v>1.036278867173417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047124762464797</v>
+        <v>1.054034627311893</v>
       </c>
       <c r="J11">
-        <v>1.036904627537123</v>
+        <v>1.019748358493819</v>
       </c>
       <c r="K11">
-        <v>1.061242474041194</v>
+        <v>1.05486489983882</v>
       </c>
       <c r="L11">
-        <v>1.033697946151699</v>
+        <v>1.014072081423676</v>
       </c>
       <c r="M11">
-        <v>1.064897371780188</v>
+        <v>1.05054758132175</v>
       </c>
       <c r="N11">
-        <v>1.038377151042849</v>
+        <v>1.021196518129652</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030079963374993</v>
+        <v>0.9887639447967097</v>
       </c>
       <c r="D12">
-        <v>1.057576245228481</v>
+        <v>1.039733301115158</v>
       </c>
       <c r="E12">
-        <v>1.029920959095743</v>
+        <v>0.9982026825857983</v>
       </c>
       <c r="F12">
-        <v>1.061211765252056</v>
+        <v>1.035210633952371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047055752119926</v>
+        <v>1.05357194727173</v>
       </c>
       <c r="J12">
-        <v>1.036769447098055</v>
+        <v>1.019051566387964</v>
       </c>
       <c r="K12">
-        <v>1.061109087751019</v>
+        <v>1.054136909607483</v>
       </c>
       <c r="L12">
-        <v>1.033556025267885</v>
+        <v>1.013364397558551</v>
       </c>
       <c r="M12">
-        <v>1.064731606968177</v>
+        <v>1.049692976520587</v>
       </c>
       <c r="N12">
-        <v>1.038241778632052</v>
+        <v>1.020498736499083</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030127656997055</v>
+        <v>0.9890192846411361</v>
       </c>
       <c r="D13">
-        <v>1.057614412149832</v>
+        <v>1.039934949902009</v>
       </c>
       <c r="E13">
-        <v>1.029961258140634</v>
+        <v>0.9984028237732229</v>
       </c>
       <c r="F13">
-        <v>1.061256860611389</v>
+        <v>1.035440270126113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047070564009302</v>
+        <v>1.053671502936581</v>
       </c>
       <c r="J13">
-        <v>1.036798444235714</v>
+        <v>1.019201399114215</v>
       </c>
       <c r="K13">
-        <v>1.061137703128957</v>
+        <v>1.054293464471513</v>
       </c>
       <c r="L13">
-        <v>1.033586465980733</v>
+        <v>1.013516550260188</v>
       </c>
       <c r="M13">
-        <v>1.064767164050384</v>
+        <v>1.04987672945964</v>
       </c>
       <c r="N13">
-        <v>1.038270816948972</v>
+        <v>1.020648782004992</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030283947109218</v>
+        <v>0.9898536010763329</v>
       </c>
       <c r="D14">
-        <v>1.057739477043579</v>
+        <v>1.040593948523784</v>
       </c>
       <c r="E14">
-        <v>1.030093329218091</v>
+        <v>0.9990570286924033</v>
       </c>
       <c r="F14">
-        <v>1.061404639863632</v>
+        <v>1.036190789743552</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047119062077657</v>
+        <v>1.053996521052173</v>
       </c>
       <c r="J14">
-        <v>1.036893453695325</v>
+        <v>1.019690926983508</v>
       </c>
       <c r="K14">
-        <v>1.061231449898225</v>
+        <v>1.054804903031602</v>
       </c>
       <c r="L14">
-        <v>1.033686214118075</v>
+        <v>1.014013742246461</v>
       </c>
       <c r="M14">
-        <v>1.064883669596497</v>
+        <v>1.050477135925301</v>
       </c>
       <c r="N14">
-        <v>1.038365961332915</v>
+        <v>1.021139005060009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030380256682462</v>
+        <v>0.9903658854763152</v>
       </c>
       <c r="D15">
-        <v>1.057816539854485</v>
+        <v>1.040998672111254</v>
       </c>
       <c r="E15">
-        <v>1.030174724174603</v>
+        <v>0.999458910583592</v>
       </c>
       <c r="F15">
-        <v>1.061495707549818</v>
+        <v>1.036651764718136</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047148917158288</v>
+        <v>1.054195874417925</v>
       </c>
       <c r="J15">
-        <v>1.036951990751517</v>
+        <v>1.019991468841037</v>
       </c>
       <c r="K15">
-        <v>1.061289199912908</v>
+        <v>1.055118856718685</v>
       </c>
       <c r="L15">
-        <v>1.033747677484436</v>
+        <v>1.014319053877925</v>
       </c>
       <c r="M15">
-        <v>1.064955452579498</v>
+        <v>1.050845793046244</v>
       </c>
       <c r="N15">
-        <v>1.03842458151844</v>
+        <v>1.021439973721448</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030941034075939</v>
+        <v>0.9933211676475249</v>
       </c>
       <c r="D16">
-        <v>1.058265172157502</v>
+        <v>1.043334710517865</v>
       </c>
       <c r="E16">
-        <v>1.030648806759364</v>
+        <v>1.001780119763795</v>
       </c>
       <c r="F16">
-        <v>1.062026004018223</v>
+        <v>1.039313164165943</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047322286333404</v>
+        <v>1.055342632096346</v>
       </c>
       <c r="J16">
-        <v>1.037292679438425</v>
+        <v>1.021724658055086</v>
       </c>
       <c r="K16">
-        <v>1.061625169213424</v>
+        <v>1.056928758678975</v>
       </c>
       <c r="L16">
-        <v>1.034105500089816</v>
+        <v>1.016080724329892</v>
       </c>
       <c r="M16">
-        <v>1.065373260552932</v>
+        <v>1.052972417991616</v>
       </c>
       <c r="N16">
-        <v>1.038765754022362</v>
+        <v>1.023175624262981</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031292982493077</v>
+        <v>0.9951522085977581</v>
       </c>
       <c r="D17">
-        <v>1.058546668279256</v>
+        <v>1.044783110093232</v>
       </c>
       <c r="E17">
-        <v>1.030946474550333</v>
+        <v>1.003220726678219</v>
       </c>
       <c r="F17">
-        <v>1.062358857753644</v>
+        <v>1.040963911553798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047430683072737</v>
+        <v>1.056050219258938</v>
       </c>
       <c r="J17">
-        <v>1.037506363979478</v>
+        <v>1.022797963461229</v>
       </c>
       <c r="K17">
-        <v>1.061835771255214</v>
+        <v>1.058048989806716</v>
       </c>
       <c r="L17">
-        <v>1.034330021622678</v>
+        <v>1.017172519570759</v>
       </c>
       <c r="M17">
-        <v>1.065635339265521</v>
+        <v>1.054289893868535</v>
       </c>
       <c r="N17">
-        <v>1.038979742019973</v>
+        <v>1.02425045388591</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031498335272557</v>
+        <v>0.996212245229507</v>
       </c>
       <c r="D18">
-        <v>1.058710888831711</v>
+        <v>1.045621969337427</v>
       </c>
       <c r="E18">
-        <v>1.031120202547608</v>
+        <v>1.004055585483039</v>
       </c>
       <c r="F18">
-        <v>1.062553081829859</v>
+        <v>1.041920191872355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047493781544815</v>
+        <v>1.056458789201819</v>
       </c>
       <c r="J18">
-        <v>1.037630994844319</v>
+        <v>1.023419117071587</v>
       </c>
       <c r="K18">
-        <v>1.061958560049413</v>
+        <v>1.058697082113929</v>
       </c>
       <c r="L18">
-        <v>1.034461005684074</v>
+        <v>1.017804679525746</v>
       </c>
       <c r="M18">
-        <v>1.065788204449184</v>
+        <v>1.055052539757898</v>
       </c>
       <c r="N18">
-        <v>1.039104549874937</v>
+        <v>1.024872489605642</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031568366630025</v>
+        <v>0.9965723566249632</v>
       </c>
       <c r="D19">
-        <v>1.058766888600888</v>
+        <v>1.045906998946304</v>
       </c>
       <c r="E19">
-        <v>1.031179456798857</v>
+        <v>1.004339343550126</v>
       </c>
       <c r="F19">
-        <v>1.062619320079953</v>
+        <v>1.042245158539527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047515274842532</v>
+        <v>1.056597403700786</v>
       </c>
       <c r="J19">
-        <v>1.03767348940857</v>
+        <v>1.023630095969245</v>
       </c>
       <c r="K19">
-        <v>1.062000419027419</v>
+        <v>1.058917172918421</v>
       </c>
       <c r="L19">
-        <v>1.034505671976336</v>
+        <v>1.018019448563014</v>
       </c>
       <c r="M19">
-        <v>1.065840327330431</v>
+        <v>1.055311607950787</v>
       </c>
       <c r="N19">
-        <v>1.039147104786343</v>
+        <v>1.025083768117534</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031255214797124</v>
+        <v>0.9949565851898311</v>
       </c>
       <c r="D20">
-        <v>1.058516463436286</v>
+        <v>1.044628330792739</v>
       </c>
       <c r="E20">
-        <v>1.030914526906125</v>
+        <v>1.003066727116046</v>
       </c>
       <c r="F20">
-        <v>1.062323137811594</v>
+        <v>1.040787485332156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047419066312305</v>
+        <v>1.055974733222182</v>
       </c>
       <c r="J20">
-        <v>1.037483438440735</v>
+        <v>1.022683315985971</v>
       </c>
       <c r="K20">
-        <v>1.061813180999271</v>
+        <v>1.057929352317651</v>
       </c>
       <c r="L20">
-        <v>1.034305930049802</v>
+        <v>1.017055865320811</v>
       </c>
       <c r="M20">
-        <v>1.065607220782078</v>
+        <v>1.054149145588805</v>
       </c>
       <c r="N20">
-        <v>1.038956783924335</v>
+        <v>1.024135643598087</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030237920631944</v>
+        <v>0.9896082847469803</v>
       </c>
       <c r="D21">
-        <v>1.057702647254449</v>
+        <v>1.040400162985391</v>
       </c>
       <c r="E21">
-        <v>1.030054433073606</v>
+        <v>0.9988646314831071</v>
       </c>
       <c r="F21">
-        <v>1.061361119218453</v>
+        <v>1.035970082380549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047104786057874</v>
+        <v>1.053900999490749</v>
       </c>
       <c r="J21">
-        <v>1.036865476068873</v>
+        <v>1.019546997319746</v>
       </c>
       <c r="K21">
-        <v>1.06120384598881</v>
+        <v>1.054654539549768</v>
       </c>
       <c r="L21">
-        <v>1.03365683968268</v>
+        <v>1.013867545741853</v>
       </c>
       <c r="M21">
-        <v>1.064849361599616</v>
+        <v>1.050300597185683</v>
       </c>
       <c r="N21">
-        <v>1.038337943975023</v>
+        <v>1.020994870999616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029598921094876</v>
+        <v>0.986169052651534</v>
       </c>
       <c r="D22">
-        <v>1.057191238164081</v>
+        <v>1.037685015354497</v>
       </c>
       <c r="E22">
-        <v>1.029514600107283</v>
+        <v>0.9961707631140263</v>
       </c>
       <c r="F22">
-        <v>1.060756957646926</v>
+        <v>1.0328785047267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046906041912309</v>
+        <v>1.052558020108392</v>
       </c>
       <c r="J22">
-        <v>1.03647687629477</v>
+        <v>1.017528536090207</v>
       </c>
       <c r="K22">
-        <v>1.060820274960293</v>
+        <v>1.052545151230223</v>
       </c>
       <c r="L22">
-        <v>1.033248958966609</v>
+        <v>1.011818461528919</v>
       </c>
       <c r="M22">
-        <v>1.064372867370574</v>
+        <v>1.047825607711866</v>
       </c>
       <c r="N22">
-        <v>1.037948792344668</v>
+        <v>1.01897354332361</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029937608277183</v>
+        <v>0.9879997454334537</v>
       </c>
       <c r="D23">
-        <v>1.057462319699483</v>
+        <v>1.039129893198135</v>
       </c>
       <c r="E23">
-        <v>1.029800685959614</v>
+        <v>0.9976038984620321</v>
       </c>
       <c r="F23">
-        <v>1.061077168415928</v>
+        <v>1.034523525084041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047011508104957</v>
+        <v>1.05327375562748</v>
       </c>
       <c r="J23">
-        <v>1.036682885944862</v>
+        <v>1.018603097589524</v>
       </c>
       <c r="K23">
-        <v>1.061023656195802</v>
+        <v>1.053668277487068</v>
       </c>
       <c r="L23">
-        <v>1.033465162241806</v>
+        <v>1.01290905655481</v>
       </c>
       <c r="M23">
-        <v>1.064625465310873</v>
+        <v>1.049143028032718</v>
       </c>
       <c r="N23">
-        <v>1.038155094552093</v>
+        <v>1.020049630823509</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031272280185633</v>
+        <v>0.9950450035949099</v>
       </c>
       <c r="D24">
-        <v>1.058530111616414</v>
+        <v>1.044698287307676</v>
       </c>
       <c r="E24">
-        <v>1.030928962352029</v>
+        <v>1.003136329616706</v>
       </c>
       <c r="F24">
-        <v>1.062339277880847</v>
+        <v>1.040867225023303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047424315820371</v>
+        <v>1.056008854931104</v>
       </c>
       <c r="J24">
-        <v>1.037493797528814</v>
+        <v>1.022735135322229</v>
       </c>
       <c r="K24">
-        <v>1.061823388723783</v>
+        <v>1.05798342776276</v>
       </c>
       <c r="L24">
-        <v>1.034316815919154</v>
+        <v>1.017108590748417</v>
       </c>
       <c r="M24">
-        <v>1.065619926317327</v>
+        <v>1.054212761619978</v>
       </c>
       <c r="N24">
-        <v>1.038967157723506</v>
+        <v>1.024187536523746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032823725392459</v>
+        <v>1.002909667638246</v>
       </c>
       <c r="D25">
-        <v>1.059770341594429</v>
+        <v>1.050927297508601</v>
       </c>
       <c r="E25">
-        <v>1.0322423153541</v>
+        <v>1.009344986986418</v>
       </c>
       <c r="F25">
-        <v>1.063806865571129</v>
+        <v>1.047972421530866</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047898351476906</v>
+        <v>1.059020594001941</v>
       </c>
       <c r="J25">
-        <v>1.038434508945279</v>
+        <v>1.027339505077359</v>
       </c>
       <c r="K25">
-        <v>1.062749396581427</v>
+        <v>1.062783318781074</v>
       </c>
       <c r="L25">
-        <v>1.035306067565845</v>
+        <v>1.021799945691596</v>
       </c>
       <c r="M25">
-        <v>1.066773902570599</v>
+        <v>1.059869025966675</v>
       </c>
       <c r="N25">
-        <v>1.039909205058084</v>
+        <v>1.028798445012058</v>
       </c>
     </row>
   </sheetData>
